--- a/doc/상품관리_url매핑.xlsx
+++ b/doc/상품관리_url매핑.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="27855" windowHeight="12840"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="상품관리" sheetId="1" r:id="rId1"/>
+    <sheet name="회원관리" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
   <si>
     <t>기능</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -222,11 +223,314 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Product ProductSVC.pindById(Long productId)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Product ProductDAO.pindById(Long productId)</t>
+    <t>Product ProductSVC.findById(Long productId)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Product ProductDAO.findById(Long productId)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductSVC.update(Long productId,Product product)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDAO.update(Long productId,Product product)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductSVC.del(Long productId)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductDAO.del(Long productId)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductSVC.all()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>Field Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Field 내역</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UK</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Initial Val</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null 허용</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>유형</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>소수점</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비       고</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부관리용 아이디</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMAIL</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원아이디(이메일)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex)admin@google.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8~10자리,특수문자포함</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICKNAME</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>별칭</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성일시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>systimestamp</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDATE</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경일시</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부관리번호, MEMBER_MEMBER_ID_SEQ</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member MemberDAO.insert(Member Member)</t>
+  </si>
+  <si>
+    <t>Member MemberDAO.findById(Long MemberId)</t>
+  </si>
+  <si>
+    <t>MemberDAO.update(Long MemberId,Member Member)</t>
+  </si>
+  <si>
+    <t>MemberDAO.del(Long MemberId)</t>
+  </si>
+  <si>
+    <t>MemberDAO.all()</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>int MemberDAO.insert(Member Member)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member MemberDAO.findById(Long MemberId)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MemberDAO.update(Long MemberId,Member Member)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>int MemberDAO.del(Long MemberId)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Member&gt; MemberDAO.all()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;Product&gt; ProductDAO.all()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원관리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가입처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회화면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탈퇴처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/add</t>
+  </si>
+  <si>
+    <t>/members/add</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members</t>
+  </si>
+  <si>
+    <t>회원등록 정보
+(이메일,비밀번호,별칭)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberForm.html</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JoinForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberEditForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController.joinForm()</t>
+  </si>
+  <si>
+    <t>MemberController.join()</t>
+  </si>
+  <si>
+    <t>MemberController.findById()</t>
+  </si>
+  <si>
+    <t>MemberController.edit()</t>
+  </si>
+  <si>
+    <t>MemberController.del()</t>
+  </si>
+  <si>
+    <t>MemberController.all()</t>
+  </si>
+  <si>
+    <t>MemberController.editForm()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/{id}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/{id}/edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members/{id}/del</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -234,7 +538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -258,8 +562,28 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +596,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="18"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -296,30 +626,122 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,314 +1023,734 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="18.25" customWidth="1"/>
-    <col min="4" max="4" width="20.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.875" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
-    <col min="9" max="9" width="34.875" customWidth="1"/>
-    <col min="10" max="10" width="41.75" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="10.25" customWidth="1"/>
+    <col min="4" max="4" width="18.25" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="26.5" customWidth="1"/>
+    <col min="9" max="9" width="12.375" customWidth="1"/>
+    <col min="10" max="10" width="34.875" customWidth="1"/>
+    <col min="11" max="11" width="41.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" ht="33" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4" t="s">
+      <c r="H7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+      <c r="J7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="16"/>
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="J8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15"/>
+      <c r="B11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C27" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E29" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="4" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="1">
+        <v>40</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" s="1">
+        <v>30</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+      <c r="L7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A7"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>